--- a/src/test/resources/testdata/userData.xlsx
+++ b/src/test/resources/testdata/userData.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="18024"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="18024" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="happyPath" sheetId="1" r:id="rId1"/>
+    <sheet name="negativeScenario" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="37">
   <si>
     <t>name</t>
   </si>
@@ -32,9 +33,6 @@
     <t>surname</t>
   </si>
   <si>
-    <t>street</t>
-  </si>
-  <si>
     <t>name1</t>
   </si>
   <si>
@@ -60,16 +58,102 @@
   </si>
   <si>
     <t>street3</t>
+  </si>
+  <si>
+    <t>strasse</t>
+  </si>
+  <si>
+    <t>plz</t>
+  </si>
+  <si>
+    <t>ort</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>message</t>
+  </si>
+  <si>
+    <t>ort1</t>
+  </si>
+  <si>
+    <t>email1@some.email</t>
+  </si>
+  <si>
+    <t>msg1</t>
+  </si>
+  <si>
+    <t>ort2</t>
+  </si>
+  <si>
+    <t>msg2</t>
+  </si>
+  <si>
+    <t>ort3</t>
+  </si>
+  <si>
+    <t>msg3</t>
+  </si>
+  <si>
+    <t>email2@some.email</t>
+  </si>
+  <si>
+    <t>email3@some.email</t>
+  </si>
+  <si>
+    <t>eee</t>
+  </si>
+  <si>
+    <t>invalidZIP</t>
+  </si>
+  <si>
+    <t>1122</t>
+  </si>
+  <si>
+    <t>1123</t>
+  </si>
+  <si>
+    <t>1124</t>
+  </si>
+  <si>
+    <t>2233</t>
+  </si>
+  <si>
+    <t>0854456666</t>
+  </si>
+  <si>
+    <t>0854456667</t>
+  </si>
+  <si>
+    <t>0854456668</t>
+  </si>
+  <si>
+    <t>353856656532</t>
+  </si>
+  <si>
+    <t>+14552233</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -92,13 +176,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -377,62 +465,232 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.21875" customWidth="1"/>
+    <col min="1" max="1" width="7.21875" style="1" customWidth="1"/>
+    <col min="2" max="6" width="8.88671875" style="1"/>
+    <col min="7" max="7" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
+      <c r="D4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1"/>
+    <hyperlink ref="F3" r:id="rId2"/>
+    <hyperlink ref="F4" r:id="rId3"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="6" width="8.88671875" style="1"/>
+    <col min="7" max="7" width="15.6640625" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1" display="email1@some.email"/>
+    <hyperlink ref="F3" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>